--- a/biology/Mycologie/Bolet_commun/Bolet_commun.xlsx
+++ b/biology/Mycologie/Bolet_commun/Bolet_commun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hortiboletus engelii
-Hortiboletus engelii, le Bolet commun, anciennement Xerocomus communis[1], est une espèce de champignons (Fungi) basidiomycètes du genre Hortiboletus dans la famille des Boletaceae. Comestible moyen, Il est caractérisé par la chair à la base de son pied piquetée de tout petits points rouge orangés à la coupe et son habitat souvent dans les jardins et autres zones herbeuses.
+Hortiboletus engelii, le Bolet commun, anciennement Xerocomus communis, est une espèce de champignons (Fungi) basidiomycètes du genre Hortiboletus dans la famille des Boletaceae. Comestible moyen, Il est caractérisé par la chair à la base de son pied piquetée de tout petits points rouge orangés à la coupe et son habitat souvent dans les jardins et autres zones herbeuses.
 Le nom de genre Hortiboletus (Horti = jardin, boletus = bolet) caractérise la tendance des petits bolets de ce genre à pousser dans les jardins, les parcs, les clairières et autres zones herbeuses, dont Hortiboletus engelii qui est assez commun dans ces milieux.
 </t>
         </is>
@@ -513,11 +525,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Hortiboletus engelii (Hlaváček) Biketova &amp; Wasser[2]. L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus engelii Hlaváček[2].
-Synonymes
-Hortiboletus engelii a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Hortiboletus engelii (Hlaváček) Biketova &amp; Wasser. L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus engelii Hlaváček.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bolet_commun</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_commun</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hortiboletus engelii a pour synonymes :
 Boletus armeniacus sensu Dennis
 Boletus communis sensu auct.
 Boletus declivitatum (C.Martín) Watling
@@ -528,46 +577,117 @@
 Xerocomus declivitatum (C.Martín) A.E.Hills
 Xerocomus declivitatum (C.Martín) Klofac
 Xerocomus engelii (Hlaváček) Gelardi
-Xerocomus quercinus H.Engel &amp; Brückner
-Étymologie
-L'épithète engelii est en hommage à Heinz Engel, un mycologue Allemand ayant décrit cette espèce sous le nom de Xerocomus quercinus en 1996.
+Xerocomus quercinus H.Engel &amp; Brückner</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bolet_commun</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_commun</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète engelii est en hommage à Heinz Engel, un mycologue Allemand ayant décrit cette espèce sous le nom de Xerocomus quercinus en 1996.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Bolet_commun</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bolet_commun</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Hortiboletus engelii sont les suivantes :
-Son chapeau mesure de 3 à 8 cm, il est brun, brun tabac, brun olivâtre à brun ochracé, parfois rougeâtre[3],[4], avec des plages rosâtres ou rougeâtres[5] plus au moins marqués, surtout vers le bord[3].
-L'hyménophore possède des pores jaunes puis jaune olivâtre terne, un peu bleuissants[5], concolores aux tubes[3].
-Son stipe mesure 3 à 8 cm x 0,5 à 1,5 cm, il est jaunâtre à brunâtre, parfois rougeâtre, souvent lavé de rose dilué, souvent cylindrique ou alors en cône, aminci en allant vers la base, presque radicante[3],[5].
-Sa chair est pâle, blanchâtre à jaunâtre, parfois assez jaune dans la base du pied[3], bleuissant parfois légèrement dans le stipe[5]. Elle est typiquement piquetée de points rouge sang ou rouge orangeâtre à l'extrême du pied[3]. Son mycélium est de couleur blanche, exceptionnellement jaune[5].
-Caractéristiques microscopiques
-Ses spores mesurent 11 à 14 µm x 4,5 à 5,5 µm[5], elles sont allongées-fusoïdes, lisses[3].
+Son chapeau mesure de 3 à 8 cm, il est brun, brun tabac, brun olivâtre à brun ochracé, parfois rougeâtre avec des plages rosâtres ou rougeâtres plus au moins marqués, surtout vers le bord.
+L'hyménophore possède des pores jaunes puis jaune olivâtre terne, un peu bleuissants, concolores aux tubes.
+Son stipe mesure 3 à 8 cm x 0,5 à 1,5 cm, il est jaunâtre à brunâtre, parfois rougeâtre, souvent lavé de rose dilué, souvent cylindrique ou alors en cône, aminci en allant vers la base, presque radicante,.
+Sa chair est pâle, blanchâtre à jaunâtre, parfois assez jaune dans la base du pied, bleuissant parfois légèrement dans le stipe. Elle est typiquement piquetée de points rouge sang ou rouge orangeâtre à l'extrême du pied. Son mycélium est de couleur blanche, exceptionnellement jaune.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bolet_commun</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_commun</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 11 à 14 µm x 4,5 à 5,5 µm, elles sont allongées-fusoïdes, lisses.
 </t>
         </is>
       </c>
